--- a/Documentacion APPs/Generación_Comprobantes.xlsx
+++ b/Documentacion APPs/Generación_Comprobantes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARMANDO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sa\sistema\Documentacion APPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Generacion-Comprobante" sheetId="1" r:id="rId1"/>
+    <sheet name="Documentacion" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Parametro</t>
   </si>
@@ -129,13 +129,58 @@
   </si>
   <si>
     <t>Comprobante</t>
+  </si>
+  <si>
+    <t>nParSrcClase</t>
+  </si>
+  <si>
+    <t>cParParExtGlosa</t>
+  </si>
+  <si>
+    <t>cParParExtValor</t>
+  </si>
+  <si>
+    <t>nObjTipo</t>
+  </si>
+  <si>
+    <t>nObjCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nParDstCodigo </t>
+  </si>
+  <si>
+    <t>nParSrcCodigo</t>
+  </si>
+  <si>
+    <t>nParDstClase</t>
+  </si>
+  <si>
+    <t>PUNTO DE EMISOON</t>
+  </si>
+  <si>
+    <t>COMPROBANTE</t>
+  </si>
+  <si>
+    <t>SERIE</t>
+  </si>
+  <si>
+    <t>NUMERACION INICIAL</t>
+  </si>
+  <si>
+    <t>PARAMETROS</t>
+  </si>
+  <si>
+    <t>ESTADO(Activo, Eliminado)</t>
+  </si>
+  <si>
+    <t>00000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,6 +275,38 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -324,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -332,11 +409,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -388,6 +480,29 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J3"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,173 +1479,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1007</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1008</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>1009</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
